--- a/Secretary.xlsx
+++ b/Secretary.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="6048777350277849330" xfId="1" hidden="0"/>
-    <cellStyle name="6734125674823964882" xfId="2" hidden="0"/>
+    <cellStyle name="2201399002930197425" xfId="1" hidden="0"/>
+    <cellStyle name="4356163498984725899" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Warmups</t>
+          <t>Warmup</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -541,40 +541,39 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Lala</t>
+          <t>Kay Carey</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>LouLou</t>
+          <t>Gus</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Lala</t>
+          <t>Kay Carey</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Tracey Harmon</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>8-10 - Novice Equitation*
- 39-41 - Working Hunter* (2'6)</t>
+          <t>32-34 - Open Equitation (2' or 2'6)</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Short Stirrup Hunter Warmup</t>
+          <t>Open Equitation Warmup</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
@@ -585,41 +584,41 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Pam Goodin</t>
+          <t>Ellie Everhart</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Yay</t>
+          <t>Navarro</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Cameron Baumgardner</t>
+          <t>Ellie Everhart</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Charlene Good</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>11-13 - Pleasure Pony*
- 19-21 - Junior Pleasure Horse*
- 39-41 - Working Hunter* (2'6)</t>
+          <t>22 - VHSA Equitation on the Flat*
+ 23-25 - Adult Pleasure Horse*
+ 29-31 - Special Hunter - (2' or 2'6)</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>Novice Equitation Warmup</t>
+          <t>Special Hunter Warmup</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="inlineStr"/>
@@ -630,131 +629,44 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
+          <t>Natalie Baumgardner</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Campani</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Natalie Baumgardner</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>Charlene Good</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Glenhaven Sweet Saturn</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Cameron Baumgardner</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Natalie Baumgardner</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14 - Lead Line
- 45-47 - Thoroughbred Hunter* (2'6)</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr"/>
+          <t>22 - VHSA Equitation on the Flat*
+ 23-25 - Adult Pleasure Horse*
+ 29-31 - Special Hunter - (2' or 2'6)</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Special Hunter Warmup</t>
+        </is>
+      </c>
       <c r="I4" s="2" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Ellie Everhart</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Navarro</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Natalie Baumgardner</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Charlene Good</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>23-25 - Adult Pleasure Horse*</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Special Hunter (2' 2'6) Warmup</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Natalie Baumgardner</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Campani</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Natalie Baumgardner</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Charlene Good</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>22 - VHSA Equitation on the Flat*
- 23
-24
-25 - Adult Pleasure Horse*
- 26
-27
-28 - Baby Green Hunter (2')</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Baby Green Hunter (2') Warmup</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Secretary.xlsx
+++ b/Secretary.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="2201399002930197425" xfId="1" hidden="0"/>
-    <cellStyle name="4356163498984725899" xfId="2" hidden="0"/>
+    <cellStyle name="7588114584319612423" xfId="1" hidden="0"/>
+    <cellStyle name="8731743062006934993" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
